--- a/evaluation/results/hybrid/pca/LOF/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.896797153024911</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="C2">
+        <v>0.0673076923076923</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.1261261261261261</v>
+      </c>
+      <c r="F2">
+        <v>0.2651515151515151</v>
+      </c>
+      <c r="G2">
+        <v>0.6523297491039427</v>
+      </c>
+      <c r="H2">
+        <v>0.807784911717496</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>388</v>
+      </c>
+      <c r="K2">
+        <v>146</v>
+      </c>
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.4719101123595505</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>504</v>
-      </c>
-      <c r="L2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9438202247191011</v>
+        <v>0.2734082397003745</v>
       </c>
       <c r="D2">
-        <v>0.9455909943714822</v>
+        <v>0.4294117647058823</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.896797153024911</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="C4">
-        <v>0.896797153024911</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="D4">
-        <v>0.896797153024911</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="E4">
-        <v>0.896797153024911</v>
+        <v>0.3096085409252669</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4736842105263158</v>
+        <v>0.5336538461538461</v>
       </c>
       <c r="C5">
-        <v>0.4719101123595505</v>
+        <v>0.6367041198501873</v>
       </c>
       <c r="D5">
-        <v>0.4727954971857411</v>
+        <v>0.2777689454160042</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9001685708934257</v>
+        <v>0.953531344100739</v>
       </c>
       <c r="C6">
-        <v>0.896797153024911</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="D6">
-        <v>0.8984796992782411</v>
+        <v>0.4143014481930119</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>28</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
